--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H2">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I2">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J2">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>23846.94034090584</v>
+        <v>23864.03699774095</v>
       </c>
       <c r="R2">
-        <v>23846.94034090584</v>
+        <v>95456.14799096381</v>
       </c>
       <c r="S2">
-        <v>0.05818483689306416</v>
+        <v>0.05514315319827938</v>
       </c>
       <c r="T2">
-        <v>0.05818483689306416</v>
+        <v>0.03163898741175867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H3">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I3">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J3">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>16137.99475982865</v>
+        <v>17221.06770147122</v>
       </c>
       <c r="R3">
-        <v>16137.99475982865</v>
+        <v>103326.4062088273</v>
       </c>
       <c r="S3">
-        <v>0.03937555843468372</v>
+        <v>0.03979309848497396</v>
       </c>
       <c r="T3">
-        <v>0.03937555843468372</v>
+        <v>0.03424758838637421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H4">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I4">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J4">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>12174.96054426909</v>
+        <v>12257.30468861706</v>
       </c>
       <c r="R4">
-        <v>12174.96054426909</v>
+        <v>73543.82813170234</v>
       </c>
       <c r="S4">
-        <v>0.0297060370563614</v>
+        <v>0.02832322252544203</v>
       </c>
       <c r="T4">
-        <v>0.0297060370563614</v>
+        <v>0.02437613816861477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H5">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I5">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J5">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>11447.4979928857</v>
+        <v>11547.33776505544</v>
       </c>
       <c r="R5">
-        <v>11447.4979928857</v>
+        <v>69284.02659033262</v>
       </c>
       <c r="S5">
-        <v>0.02793108021523372</v>
+        <v>0.02668268639840805</v>
       </c>
       <c r="T5">
-        <v>0.02793108021523372</v>
+        <v>0.02296422484317088</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H6">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I6">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J6">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>16819.54079780282</v>
+        <v>17651.57232470025</v>
       </c>
       <c r="R6">
-        <v>16819.54079780282</v>
+        <v>105909.4339482015</v>
       </c>
       <c r="S6">
-        <v>0.04103848225164893</v>
+        <v>0.04078787495106532</v>
       </c>
       <c r="T6">
-        <v>0.04103848225164893</v>
+        <v>0.03510373420673582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H7">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I7">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J7">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>20223.17090689948</v>
+        <v>20286.98124701082</v>
       </c>
       <c r="R7">
-        <v>20223.17090689948</v>
+        <v>81147.92498804328</v>
       </c>
       <c r="S7">
-        <v>0.04934309743124932</v>
+        <v>0.04687757209479843</v>
       </c>
       <c r="T7">
-        <v>0.04934309743124932</v>
+        <v>0.02689651982845652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H8">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J8">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>46703.36650742937</v>
+        <v>48710.63305124374</v>
       </c>
       <c r="R8">
-        <v>46703.36650742937</v>
+        <v>292263.7983074624</v>
       </c>
       <c r="S8">
-        <v>0.1139528897101501</v>
+        <v>0.1125567271364931</v>
       </c>
       <c r="T8">
-        <v>0.1139528897101501</v>
+        <v>0.09687098034207209</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H9">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J9">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>31605.67658528484</v>
+        <v>35151.18207520371</v>
       </c>
       <c r="R9">
-        <v>31605.67658528484</v>
+        <v>316360.6386768334</v>
       </c>
       <c r="S9">
-        <v>0.07711560102556457</v>
+        <v>0.08122460665213771</v>
       </c>
       <c r="T9">
-        <v>0.07711560102556457</v>
+        <v>0.1048578899875551</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H10">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J10">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>23844.21801639362</v>
+        <v>25019.28198238356</v>
       </c>
       <c r="R10">
-        <v>23844.21801639362</v>
+        <v>225173.537841452</v>
       </c>
       <c r="S10">
-        <v>0.05817819461504237</v>
+        <v>0.05781260309796406</v>
       </c>
       <c r="T10">
-        <v>0.05817819461504237</v>
+        <v>0.07463388036463896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H11">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J11">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>22419.50903184482</v>
+        <v>23570.11651656551</v>
       </c>
       <c r="R11">
-        <v>22419.50903184482</v>
+        <v>212131.0486490896</v>
       </c>
       <c r="S11">
-        <v>0.05470200611031169</v>
+        <v>0.05446398470205623</v>
       </c>
       <c r="T11">
-        <v>0.05470200611031169</v>
+        <v>0.07031094087818267</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H12">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I12">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J12">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>32940.45974606599</v>
+        <v>36029.91657980401</v>
       </c>
       <c r="R12">
-        <v>32940.45974606599</v>
+        <v>324269.2492182361</v>
       </c>
       <c r="S12">
-        <v>0.08037237692165045</v>
+        <v>0.08325511772670467</v>
       </c>
       <c r="T12">
-        <v>0.08037237692165045</v>
+        <v>0.1074792028587557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H13">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I13">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J13">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>39606.34569069553</v>
+        <v>41409.24267483128</v>
       </c>
       <c r="R13">
-        <v>39606.34569069553</v>
+        <v>248455.4560489877</v>
       </c>
       <c r="S13">
-        <v>0.09663666411704942</v>
+        <v>0.09568524440601174</v>
       </c>
       <c r="T13">
-        <v>0.09663666411704942</v>
+        <v>0.08235068365696904</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H14">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I14">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J14">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>115.7866707448747</v>
+        <v>29.75414417005567</v>
       </c>
       <c r="R14">
-        <v>115.7866707448747</v>
+        <v>178.524865020334</v>
       </c>
       <c r="S14">
-        <v>0.0002825112343710233</v>
+        <v>6.875355290508426E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002825112343710233</v>
+        <v>5.917215471128119E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H15">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I15">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J15">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>78.35657988096496</v>
+        <v>21.47156121155733</v>
       </c>
       <c r="R15">
-        <v>78.35657988096496</v>
+        <v>193.244050904016</v>
       </c>
       <c r="S15">
-        <v>0.0001911844771151516</v>
+        <v>4.961480697533369E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001911844771151516</v>
+        <v>6.405083614444813E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H16">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I16">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J16">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>59.1144242287972</v>
+        <v>15.282645215306</v>
       </c>
       <c r="R16">
-        <v>59.1144242287972</v>
+        <v>137.543806937754</v>
       </c>
       <c r="S16">
-        <v>0.0001442349870721114</v>
+        <v>3.531394317157428E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001442349870721114</v>
+        <v>4.55889627630995E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H17">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I17">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J17">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>55.58229533879576</v>
+        <v>14.39744468525222</v>
       </c>
       <c r="R17">
-        <v>55.58229533879576</v>
+        <v>129.57700216727</v>
       </c>
       <c r="S17">
-        <v>0.0001356168440142583</v>
+        <v>3.326849091030875E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001356168440142583</v>
+        <v>4.294836138591903E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H18">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I18">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J18">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>81.66576527616735</v>
+        <v>22.00832272540533</v>
       </c>
       <c r="R18">
-        <v>81.66576527616735</v>
+        <v>198.074904528648</v>
       </c>
       <c r="S18">
-        <v>0.0001992586539158744</v>
+        <v>5.085511356687403E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001992586539158744</v>
+        <v>6.565202496501785E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H19">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I19">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J19">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>98.19178467930674</v>
+        <v>25.29420168330767</v>
       </c>
       <c r="R19">
-        <v>98.19178467930674</v>
+        <v>151.765210099846</v>
       </c>
       <c r="S19">
-        <v>0.0002395809648587948</v>
+        <v>5.84478660749163E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002395809648587948</v>
+        <v>5.030265386726565E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H20">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I20">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J20">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>21560.4167990735</v>
+        <v>121.585079281826</v>
       </c>
       <c r="R20">
-        <v>21560.4167990735</v>
+        <v>729.510475690956</v>
       </c>
       <c r="S20">
-        <v>0.05260588221662484</v>
+        <v>0.0002809493068627639</v>
       </c>
       <c r="T20">
-        <v>0.05260588221662484</v>
+        <v>0.0002417966075827526</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H21">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I21">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J21">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>14590.63042676078</v>
+        <v>87.73976012521599</v>
       </c>
       <c r="R21">
-        <v>14590.63042676078</v>
+        <v>789.6578411269439</v>
       </c>
       <c r="S21">
-        <v>0.03560009961075816</v>
+        <v>0.0002027421862706245</v>
       </c>
       <c r="T21">
-        <v>0.03560009961075816</v>
+        <v>0.0002617324815723443</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H22">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I22">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J22">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>11007.58504420971</v>
+        <v>62.449842936804</v>
       </c>
       <c r="R22">
-        <v>11007.58504420971</v>
+        <v>562.048586431236</v>
       </c>
       <c r="S22">
-        <v>0.02685772393556235</v>
+        <v>0.0001443042204719452</v>
       </c>
       <c r="T22">
-        <v>0.02685772393556235</v>
+        <v>0.0001862912816529952</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H23">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I23">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J23">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>10349.87400919533</v>
+        <v>58.83262659168666</v>
       </c>
       <c r="R23">
-        <v>10349.87400919533</v>
+        <v>529.49363932518</v>
       </c>
       <c r="S23">
-        <v>0.02525295582913005</v>
+        <v>0.0001359458394030168</v>
       </c>
       <c r="T23">
-        <v>0.02525295582913005</v>
+        <v>0.0001755009283509064</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H24">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I24">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J24">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>15206.82757559476</v>
+        <v>89.93314168724798</v>
       </c>
       <c r="R24">
-        <v>15206.82757559476</v>
+        <v>809.3982751852319</v>
       </c>
       <c r="S24">
-        <v>0.03710357679006637</v>
+        <v>0.0002078104811072802</v>
       </c>
       <c r="T24">
-        <v>0.03710357679006637</v>
+        <v>0.0002682754581937344</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H25">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I25">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J25">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>18284.10636830098</v>
+        <v>103.360308381194</v>
       </c>
       <c r="R25">
-        <v>18284.10636830098</v>
+        <v>620.161850287164</v>
       </c>
       <c r="S25">
-        <v>0.04461191798891451</v>
+        <v>0.0002388369294023943</v>
       </c>
       <c r="T25">
-        <v>0.04461191798891451</v>
+        <v>0.0002055529516689272</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H26">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I26">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J26">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>4878.41876717269</v>
+        <v>22646.96476728013</v>
       </c>
       <c r="R26">
-        <v>4878.41876717269</v>
+        <v>135881.7886036808</v>
       </c>
       <c r="S26">
-        <v>0.01190299452282791</v>
+        <v>0.05233083772692698</v>
       </c>
       <c r="T26">
-        <v>0.01190299452282791</v>
+        <v>0.04503808596515</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H27">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I27">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J27">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>3301.383547550407</v>
+        <v>16342.78867096475</v>
       </c>
       <c r="R27">
-        <v>3301.383547550407</v>
+        <v>147085.0980386827</v>
       </c>
       <c r="S27">
-        <v>0.008055140847824558</v>
+        <v>0.03776363988437596</v>
       </c>
       <c r="T27">
-        <v>0.008055140847824558</v>
+        <v>0.04875142841238157</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H28">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I28">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J28">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>2490.657298574564</v>
+        <v>11632.17889124148</v>
       </c>
       <c r="R28">
-        <v>2490.657298574564</v>
+        <v>104689.6100211733</v>
       </c>
       <c r="S28">
-        <v>0.006077026511677682</v>
+        <v>0.0268787306477207</v>
       </c>
       <c r="T28">
-        <v>0.006077026511677682</v>
+        <v>0.03469942296346776</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H29">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I29">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J29">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>2341.838753622847</v>
+        <v>10958.42046950603</v>
       </c>
       <c r="R29">
-        <v>2341.838753622847</v>
+        <v>98625.78422555429</v>
       </c>
       <c r="S29">
-        <v>0.005713919855608029</v>
+        <v>0.02532186229925536</v>
       </c>
       <c r="T29">
-        <v>0.005713919855608029</v>
+        <v>0.03268956490767393</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H30">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I30">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J30">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>3440.808854730886</v>
+        <v>16751.33744397168</v>
       </c>
       <c r="R30">
-        <v>3440.808854730886</v>
+        <v>150762.0369957451</v>
       </c>
       <c r="S30">
-        <v>0.008395328672387774</v>
+        <v>0.03870768248626359</v>
       </c>
       <c r="T30">
-        <v>0.008395328672387774</v>
+        <v>0.04997015164629327</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H31">
+        <v>412.820641</v>
+      </c>
+      <c r="I31">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J31">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>139.9082645</v>
+      </c>
+      <c r="N31">
+        <v>279.816529</v>
+      </c>
+      <c r="O31">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P31">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q31">
+        <v>19252.33981069585</v>
+      </c>
+      <c r="R31">
+        <v>115514.0388641751</v>
+      </c>
+      <c r="S31">
+        <v>0.0444868034568934</v>
+      </c>
+      <c r="T31">
+        <v>0.03828718525129474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30.755622</v>
+      </c>
+      <c r="H32">
+        <v>61.511244</v>
+      </c>
+      <c r="I32">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J32">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>164.5772705</v>
+      </c>
+      <c r="N32">
+        <v>329.154541</v>
+      </c>
+      <c r="O32">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P32">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q32">
+        <v>5061.67632128975</v>
+      </c>
+      <c r="R32">
+        <v>20246.705285159</v>
+      </c>
+      <c r="S32">
+        <v>0.01169612638680564</v>
+      </c>
+      <c r="T32">
+        <v>0.006710780469659988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>30.755622</v>
+      </c>
+      <c r="H33">
+        <v>61.511244</v>
+      </c>
+      <c r="I33">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J33">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>118.764328</v>
+      </c>
+      <c r="N33">
+        <v>356.292984</v>
+      </c>
+      <c r="O33">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P33">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q33">
+        <v>3652.670779052015</v>
+      </c>
+      <c r="R33">
+        <v>21916.0246743121</v>
+      </c>
+      <c r="S33">
+        <v>0.008440306406297093</v>
+      </c>
+      <c r="T33">
+        <v>0.00726407720592279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30.755622</v>
+      </c>
+      <c r="H34">
+        <v>61.511244</v>
+      </c>
+      <c r="I34">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J34">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N34">
+        <v>253.595871</v>
+      </c>
+      <c r="O34">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P34">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q34">
+        <v>2599.832916412254</v>
+      </c>
+      <c r="R34">
+        <v>15598.99749847352</v>
+      </c>
+      <c r="S34">
+        <v>0.006007490887364179</v>
+      </c>
+      <c r="T34">
+        <v>0.005170295427560921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>30.755622</v>
+      </c>
+      <c r="H35">
+        <v>61.511244</v>
+      </c>
+      <c r="I35">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J35">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N35">
+        <v>238.907105</v>
+      </c>
+      <c r="O35">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P35">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q35">
+        <v>2449.24553816477</v>
+      </c>
+      <c r="R35">
+        <v>14695.47322898862</v>
+      </c>
+      <c r="S35">
+        <v>0.005659525332784527</v>
+      </c>
+      <c r="T35">
+        <v>0.00487082186205357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="H31">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="I31">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="J31">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N31">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O31">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P31">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q31">
-        <v>4137.096628481422</v>
-      </c>
-      <c r="R31">
-        <v>4137.096628481422</v>
-      </c>
-      <c r="S31">
-        <v>0.0100942212752604</v>
-      </c>
-      <c r="T31">
-        <v>0.0100942212752604</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>30.755622</v>
+      </c>
+      <c r="H36">
+        <v>61.511244</v>
+      </c>
+      <c r="I36">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J36">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>121.733284</v>
+      </c>
+      <c r="N36">
+        <v>365.199852</v>
+      </c>
+      <c r="O36">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P36">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q36">
+        <v>3743.982867522647</v>
+      </c>
+      <c r="R36">
+        <v>22463.89720513588</v>
+      </c>
+      <c r="S36">
+        <v>0.008651303249952152</v>
+      </c>
+      <c r="T36">
+        <v>0.007445669826941011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30.755622</v>
+      </c>
+      <c r="H37">
+        <v>61.511244</v>
+      </c>
+      <c r="I37">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J37">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>139.9082645</v>
+      </c>
+      <c r="N37">
+        <v>279.816529</v>
+      </c>
+      <c r="O37">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P37">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q37">
+        <v>4302.965697638019</v>
+      </c>
+      <c r="R37">
+        <v>17211.86279055208</v>
+      </c>
+      <c r="S37">
+        <v>0.009942957123903889</v>
+      </c>
+      <c r="T37">
+        <v>0.005704880425457195</v>
       </c>
     </row>
   </sheetData>
